--- a/data/trans_bre/P6904-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6904-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,83; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,87; 16,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,37; 29,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,62; 26,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,97; 1,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,57; 33,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,8; 68,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,03; 44,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 19,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,36; 13,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 19,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 13,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 42,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,6; 25,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 33,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 23,02</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 22,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,84; 10,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; 25,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,42; 14,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,55; 97,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,53; 36,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,24; 66,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,93; 35,87</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 7,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,03; 5,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 15,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; 8,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,42; 15,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,06; 11,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 28,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 14,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>-2,16%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 26,84</t>
+          <t>-23,39; 24,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 44,48</t>
+          <t>-27,88; 40,06</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 13,09</t>
+          <t>-3,06; 21,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 23,02</t>
+          <t>-4,71; 35,53</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-2,89%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 14,64</t>
+          <t>-19,73; 14,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 35,87</t>
+          <t>-30,72; 35,67</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 8,28</t>
+          <t>-3,92; 14,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 14,51</t>
+          <t>-6,39; 25,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 1,41</t>
+          <t>-34,01; 2,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 16,81</t>
+          <t>-27,27; 14,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 29,73</t>
+          <t>-19,43; 31,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 24,94</t>
+          <t>-24,32; 22,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 1,85</t>
+          <t>-45,51; 3,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,57; 33,25</t>
+          <t>-40,36; 31,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 68,53</t>
+          <t>-32,73; 68,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 40,06</t>
+          <t>-29,01; 35,59</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 19,15</t>
+          <t>-2,39; 19,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 13,33</t>
+          <t>-9,28; 13,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 19,61</t>
+          <t>0,12; 20,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 21,01</t>
+          <t>-1,51; 22,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 42,08</t>
+          <t>-4,36; 41,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 25,95</t>
+          <t>-15,21; 25,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 33,79</t>
+          <t>0,15; 34,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 35,53</t>
+          <t>-2,63; 39,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 22,51</t>
+          <t>-11,2; 22,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 10,68</t>
+          <t>-31,15; 12,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 25,49</t>
+          <t>-10,55; 26,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 14,33</t>
+          <t>-17,32; 15,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 97,44</t>
+          <t>-30,55; 106,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 36,29</t>
+          <t>-61,81; 44,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 66,95</t>
+          <t>-17,81; 66,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 35,67</t>
+          <t>-28,9; 38,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 7,71</t>
+          <t>-9,04; 7,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 5,56</t>
+          <t>-12,11; 5,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 15,79</t>
+          <t>-0,35; 16,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 14,69</t>
+          <t>-3,97; 14,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 15,7</t>
+          <t>-16,13; 15,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 11,03</t>
+          <t>-20,29; 11,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 28,09</t>
+          <t>-0,5; 29,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 25,52</t>
+          <t>-6,42; 26,47</t>
         </is>
       </c>
     </row>
